--- a/biology/Zoologie/Comptopallium_radula/Comptopallium_radula.xlsx
+++ b/biology/Zoologie/Comptopallium_radula/Comptopallium_radula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pétoncle râpe
-Comptopallium radula est un bivalve de la famille des pectinidés habitant les eaux peu profondes de la région indo-pacifique. Désigné sous l'appellation de pétoncle râpe dans les documents de la FAO[1], c'est une espèce d'assez grande taille susceptible d'être exploitée localement.
+Comptopallium radula est un bivalve de la famille des pectinidés habitant les eaux peu profondes de la région indo-pacifique. Désigné sous l'appellation de pétoncle râpe dans les documents de la FAO, c'est une espèce d'assez grande taille susceptible d'être exploitée localement.
 </t>
         </is>
       </c>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,9 +552,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La répartition du pétoncle râpe couvre une partie des océans Pacifique et Indien. Du nord au sud, elle s'étend du sud du Japon aux côtes septentrionales de l'Australie et à la Nouvelle-Calédonie, et d'ouest en est de l'Inde à la Mélanésie[1]. Elle inclut notamment l'Indonésie, les Philippines, Vanuatu, les îles Salomon, Tonga et Samoa.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La répartition du pétoncle râpe couvre une partie des océans Pacifique et Indien. Du nord au sud, elle s'étend du sud du Japon aux côtes septentrionales de l'Australie et à la Nouvelle-Calédonie, et d'ouest en est de l'Inde à la Mélanésie. Elle inclut notamment l'Indonésie, les Philippines, Vanuatu, les îles Salomon, Tonga et Samoa.
 </t>
         </is>
       </c>
@@ -570,6 +586,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -595,7 +613,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Thébault, J. 2005. La coquille de Comptopallium radula (Bivalvia; Pectinidae), archive eulérienne haute-fréquence de la variabilité de l'environnement côtier tropical (Océan Pacifique). Thèse, Université de Bretagne occidentale - Brest Lire la thèse</t>
         </is>
